--- a/ROC_CURVES.xlsx
+++ b/ROC_CURVES.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvill\Desktop\Github_Projects\Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvill\Desktop\GA_DataScience_BootCamp\DAT-NYC-24\classes\08\08_lab_logistic_regression\Github_projects\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,51 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>P^</t>
-  </si>
-  <si>
-    <t>BINS</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>True Negative</t>
-  </si>
-  <si>
-    <t>True Positive</t>
-  </si>
-  <si>
-    <t>Sensitivity</t>
-  </si>
-  <si>
-    <t>Specificity</t>
-  </si>
-  <si>
-    <t>st.dev</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t xml:space="preserve">At Threshold = </t>
-  </si>
-  <si>
-    <t>Predicted Probabilities</t>
-  </si>
-  <si>
-    <t>Decision Output at Threshold given</t>
-  </si>
-  <si>
-    <t>Actuals</t>
   </si>
   <si>
     <t>TRUE POSITIVES</t>
@@ -83,23 +42,102 @@
     <t>FALSE POSITIVES</t>
   </si>
   <si>
-    <t>Predictions</t>
-  </si>
-  <si>
-    <t>True Positive Rate2</t>
-  </si>
-  <si>
     <t>Precision</t>
   </si>
   <si>
-    <t>Recall, Sensitivity</t>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Class A</t>
+  </si>
+  <si>
+    <t>Class B</t>
+  </si>
+  <si>
+    <t>Out of all the one I predicted to be true how many were actually NOT true.</t>
+  </si>
+  <si>
+    <t>Out of all the ones I predicted to be true how many were actually true.</t>
+  </si>
+  <si>
+    <t>Out of all the true values how many were correctly predicted</t>
+  </si>
+  <si>
+    <t>P(X)</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Class A (0)</t>
+  </si>
+  <si>
+    <t>Class B (1)</t>
+  </si>
+  <si>
+    <t>Lift</t>
+  </si>
+  <si>
+    <t>Recall, Sensitivity, True Positive Rate</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Data Point</t>
+  </si>
+  <si>
+    <t>Decision output @threshold</t>
+  </si>
+  <si>
+    <t>Roll positive prediction (1)</t>
+  </si>
+  <si>
+    <t>Roll Percent Total</t>
+  </si>
+  <si>
+    <t>Roll % positive targets</t>
+  </si>
+  <si>
+    <t>Frequencies</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>At Threshold =</t>
+  </si>
+  <si>
+    <t>P(x) st.dev</t>
+  </si>
+  <si>
+    <t>P(x) mean</t>
+  </si>
+  <si>
+    <t>Freq. Bin P(X)</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +153,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +204,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -138,24 +249,623 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="171" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -202,13 +912,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Frequency Plot  of Predicted Probability</a:t>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Frequency Plot  of Predicted Probabilities for each class</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> for each Output</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -249,15 +960,129 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$17</c:f>
+              <c:f>Sheet1!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>True Negative</c:v>
+                  <c:v>Class A (0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$43:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C11C-451C-9CCE-63C02F9673DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Class B (1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -274,38 +1099,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$B$27</c:f>
+              <c:f>Sheet1!$C$43:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -313,21 +1141,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$C$27</c:f>
+              <c:f>Sheet1!$E$43:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -336,15 +1164,18 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -352,115 +1183,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D9FB-4F19-97A9-08D8DBF9D225}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>True Positive</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$18:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D9FB-4F19-97A9-08D8DBF9D225}"/>
+              <c16:uniqueId val="{00000001-C11C-451C-9CCE-63C02F9673DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -474,17 +1197,144 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="470852728"/>
-        <c:axId val="470855352"/>
+        <c:axId val="530751624"/>
+        <c:axId val="530753264"/>
       </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Threshold</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C11C-451C-9CCE-63C02F9673DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="530751624"/>
+        <c:axId val="530753264"/>
+      </c:scatterChart>
       <c:catAx>
-        <c:axId val="470852728"/>
+        <c:axId val="530751624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -521,7 +1371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470855352"/>
+        <c:crossAx val="530753264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,10 +1379,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="470855352"/>
+        <c:axId val="530753264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -550,6 +1400,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Counts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -581,7 +1486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470852728"/>
+        <c:crossAx val="530751624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -685,6 +1590,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ROC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curve</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -718,25 +1653,16 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>True Positive Rate2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -750,7 +1676,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -758,92 +1684,92 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$45:$F$55</c:f>
+              <c:f>Sheet1!$E$61:$E$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$45:$G$55</c:f>
+              <c:f>Sheet1!$D$61:$D$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7973-4095-B564-2F70BE8C20AD}"/>
+              <c16:uniqueId val="{00000000-931D-4F99-931C-1870EA80EC3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -855,14 +1781,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469527688"/>
-        <c:axId val="469531624"/>
+        <c:axId val="522147520"/>
+        <c:axId val="522148504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469527688"/>
+        <c:axId val="522147520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -880,7 +1807,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Positive Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -917,15 +1904,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469531624"/>
+        <c:crossAx val="522148504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469531624"/>
+        <c:axId val="522148504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -943,7 +1929,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>True</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Positive Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -980,7 +2026,2005 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469527688"/>
+        <c:crossAx val="522147520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lift</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart @.5 Threshold</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$8:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6363636363636362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29B5-4D03-8527-DE658E45BB57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$8:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="20"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29B5-4D03-8527-DE658E45BB57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="528442088"/>
+        <c:axId val="584875768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="528442088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of test instances (decreasing by score)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584875768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="584875768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lift</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528442088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cumulative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Response @.5 Threshold</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Model @.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$8:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$8:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71A5-4D33-AA34-BD4293595B68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$8:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$8:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-71A5-4D33-AA34-BD4293595B68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="520668440"/>
+        <c:axId val="520669424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="520668440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of test instances (decreasing by score)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520669424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="520669424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage of Positives Targeted</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520668440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Precision Recall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$61:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$61:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52631578947368418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76923076923076927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81818181818181823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AEA-4ADE-B608-33B5484D7F66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="538109048"/>
+        <c:axId val="538109704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="538109048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TPR,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Recall, Sensitivity</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538109704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="538109704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538109048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1116,6 +4160,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2135,27 +5299,1575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>311944</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>69055</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>254794</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>97630</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59E0476-CE28-4355-8855-A867BC3507B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D973115-FA8A-4F35-A290-0AE93AF942E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,23 +6887,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>117871</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>78580</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>395286</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>121443</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1087307E-40E0-48CE-BDBE-84CB6FE2EE4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07D4138-671F-47FD-B110-54DC372AB20F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,20 +6921,184 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>928686</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EA9EB7-1395-49DD-BBB0-3389E7AB1C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>962024</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A22058-2B60-4870-8D16-86E1547193FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EB0E3F-9459-4AF8-80AA-F8F85244D3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D44:G55" totalsRowShown="0">
-  <autoFilter ref="D44:G55"/>
-  <sortState ref="D45:F55">
-    <sortCondition ref="F44:F55"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0405A83B-279F-41BF-9E8E-D1178423B126}" name="Table4" displayName="Table4" ref="C7:N27" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" tableBorderDxfId="22">
+  <autoFilter ref="C7:N27" xr:uid="{4F4E79D9-30AF-49E7-829E-AC70ED4382CA}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{499ACC8F-4E16-468D-B62B-BD3B5EDE17C6}" name="Data Point" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{2E090211-5CBC-41A9-9E60-FFC021EA1614}" name="Class" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{36A30979-F74B-4BE5-B97D-DDB603A8C348}" name="P(X)" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{B32EB264-A566-463D-BC15-201AAEEE35F4}" name="Decision output @threshold" dataDxfId="8">
+      <calculatedColumnFormula>IF(E8&gt;=D33,1,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{913510B8-B257-4D05-97DD-E708A177B2D4}" name="Actual" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F63CB19B-DBEF-46E8-BCE5-C6A4CBA2C464}" name="Roll positive prediction (1)" dataDxfId="20">
+      <calculatedColumnFormula>SUM($G$8:G8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{0E5F79C7-F6B9-4E0B-969C-3780206F19FD}" name="Roll Percent Total" dataDxfId="19" dataCellStyle="Percent">
+      <calculatedColumnFormula>COUNT($G$8:G8)/COUNT($G$8:$G$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{497EB5A3-15A8-47E8-AA43-8B16A44D9C9F}" name="Roll % positive targets" dataDxfId="18" dataCellStyle="Percent">
+      <calculatedColumnFormula>H8/SUM($G$8:$G$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B40D6380-D741-49A3-89E0-6FFE0F114618}" name="Lift" dataDxfId="17" dataCellStyle="Comma">
+      <calculatedColumnFormula>J8/I8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{6618864B-7F76-438C-B8AE-A108959A60F3}" name="TRUE POSITIVES" dataDxfId="16">
+      <calculatedColumnFormula>IF(F8=1,IF(G8=1,1,0),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E0A9A70C-A6BB-4FB1-9733-A34DCB8C9CA2}" name="FALSE POSITIVES" dataDxfId="15">
+      <calculatedColumnFormula>IF(F8=1,IF(G8=0,1,0),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{0363E5BE-E092-4155-8660-D462D09207C3}" name="Correct" dataDxfId="14">
+      <calculatedColumnFormula>IF(F8=G8,1,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F284DE4-4A05-4E69-AA36-A7247F1C86C3}" name="Table5" displayName="Table5" ref="C42:F53" totalsRowShown="0">
+  <autoFilter ref="C42:F53" xr:uid="{14440106-422C-4072-BFAD-4B8A23BB931D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="At Threshold = "/>
-    <tableColumn id="2" name="True Positive Rate"/>
-    <tableColumn id="3" name="False Positive Rate"/>
-    <tableColumn id="4" name="True Positive Rate2"/>
+    <tableColumn id="1" xr3:uid="{8957CC22-C9D4-4204-A8D1-4E4FBE75B2DF}" name="Freq. Bin P(X)"/>
+    <tableColumn id="2" xr3:uid="{D5BE5D22-8595-4F7E-A8A7-499A45BDEAA5}" name="Class A (0)">
+      <calculatedColumnFormula>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C43,Table4[P(X)],"&lt;"&amp;$C44,Table4[Class],"=Class A")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{677BA82F-75A2-4731-A220-4E46DEDAA0F2}" name="Class B (1)">
+      <calculatedColumnFormula>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C43,Table4[P(X)],"&lt;"&amp;$C44,Table4[Class],"=Class B")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{3D1D962A-ACFE-4D76-B94E-1170EE2383DE}" name="Total">
+      <calculatedColumnFormula>SUM(D43:E43)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EE09F419-C3AE-4A76-97B8-A2A531D1EE2F}" name="Table6" displayName="Table6" ref="C60:G71" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="C60:G71" xr:uid="{4FC1A3F0-CE3C-41DB-B4DF-3DFA1EB8D539}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3F74965C-FA7B-4BE4-82D6-171F4627ABBB}" name="At Threshold = " dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{346AA21F-DF73-4BE1-8E1F-C978A7737E97}" name="True Positive Rate" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{48CF1A51-A9BB-486F-AB7C-444427D968AC}" name="False Positive Rate" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{27CD602F-BDAA-47A6-9A2D-659E5D67F0FE}" name="Precision" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B4B3F4BF-BC29-49A6-A129-95E9391E3948}" name="Accuracy" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2524,1222 +7400,1533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37DF5CC-C5F3-428A-BC86-6A41DD08648D}">
+  <dimension ref="C2:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.9296875" customWidth="1"/>
-    <col min="5" max="5" width="17.265625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="25">
+        <f>IF(E8&gt;=$D$33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUM($G$8:G8)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <f>COUNT($G$8:G8)/COUNT($G$8:$G$27)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="10">
+        <f>H8/SUM($G$8:$G$27)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="11">
+        <f>J8/I8</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="9">
+        <f>IF(F8=1,IF(G8=1,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <f>IF(F8=1,IF(G8=0,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="N8" s="9">
+        <f>IF(F8=G8,1,0)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="25">
+        <f>IF(E9&gt;=$D$33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <f>SUM($G$8:G9)</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="13">
+        <f>COUNT($G$8:G9)/COUNT($G$8:$G$27)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" ref="J9:J27" si="0">H9/SUM($G$8:$G$27)</f>
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" ref="K9:K27" si="1">J9/I9</f>
+        <v>2</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" ref="L9:L27" si="2">IF(F9=1,IF(G9=1,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" ref="M9:M27" si="3">IF(F9=1,IF(G9=0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" ref="N9:N27" si="4">IF(F9=G9,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="25">
+        <f>IF(E10&gt;=$D$33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM($G$8:G10)</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="10">
+        <f>COUNT($G$8:G10)/COUNT($G$8:$G$27)</f>
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="12">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="25">
+        <f>IF(E11&gt;=$D$33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <f>SUM($G$8:G11)</f>
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I11" s="13">
+        <f>COUNT($G$8:G11)/COUNT($G$8:$G$27)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L11" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="25">
+        <f>IF(E12&gt;=$D$33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM($G$8:G12)</f>
+        <v>5</v>
+      </c>
+      <c r="I12" s="10">
+        <f>COUNT($G$8:G12)/COUNT($G$8:$G$27)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="L12" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <f t="array" ref="C5:C14">FREQUENCY(I6:I15,B5:B14)</f>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="12">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="25">
+        <f>IF(E13&gt;=$D$33,1,0)</f>
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <f t="array" ref="F5:F14">FREQUENCY(L6:L15,E5:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="G13" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>0.2</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>0.2</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0.6</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7">
+      <c r="H13" s="12">
+        <f>SUM($G$8:G13)</f>
+        <v>6</v>
+      </c>
+      <c r="I13" s="13">
+        <f>COUNT($G$8:G13)/COUNT($G$8:$G$27)</f>
         <v>0.3</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>0.3</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>0.2</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>0.4</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0.4</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>0.2</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>0.4</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>0.6</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0.6</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>0.7</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0.7</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>0.3</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>0.8</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.8</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <v>0.2</v>
-      </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
-      <c r="L12">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>0.9</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0.9</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <v>0.2</v>
-      </c>
-      <c r="K13">
-        <v>8</v>
-      </c>
-      <c r="L13">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <v>0.1</v>
-      </c>
-      <c r="K14">
-        <v>9</v>
-      </c>
-      <c r="L14">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0.3</v>
-      </c>
-      <c r="K15">
-        <v>10</v>
-      </c>
-      <c r="L15">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <f>_xlfn.STDEV.S(I6:I15)</f>
-        <v>0.15634719199411434</v>
-      </c>
-      <c r="K17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17">
-        <f>_xlfn.STDEV.S(L6:L15)</f>
-        <v>0.16840757438758813</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <v>0.1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <f>AVERAGE(I6:I15)</f>
-        <v>0.3</v>
-      </c>
-      <c r="L18">
-        <f>AVERAGE(L6:L15)</f>
-        <v>0.71500000000000008</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <v>0.2</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B20">
-        <v>0.3</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B21">
-        <v>0.4</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21">
-        <f>SUM(P22:P41)/SUM(O22:O41)</f>
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B22">
-        <v>0.5</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22">
-        <f>SUM(Q22:Q41)/COUNTIF(O22:O41,"=0")</f>
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <f>L6</f>
-        <v>0.5</v>
-      </c>
-      <c r="N22">
-        <f>IF(M22&gt;=$H$20,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <f>IF(N22=1,IF(O22=1,1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <f>IF(N22=1,IF(O22=0,1,0),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23">
-        <v>0.6</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23">
-        <f>SUM(P22:P41)/SUM(N22:N41)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ref="M23:M33" si="0">L7</f>
-        <v>0.45</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ref="N23:N41" si="1">IF(M23&gt;=$H$20,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <f t="shared" ref="P23:P41" si="2">IF(N23=1,IF(O23=1,1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" ref="Q23:Q41" si="3">IF(N23=1,IF(O23=0,1,0),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B24">
-        <v>0.7</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="J13" s="13">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="N24">
+      <c r="K13" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="9">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="25">
+        <f>IF(E14&gt;=$D$33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM($G$8:G14)</f>
+        <v>7</v>
+      </c>
+      <c r="I14" s="10">
+        <f>COUNT($G$8:G14)/COUNT($G$8:$G$27)</f>
+        <v>0.35</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="12">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="25">
+        <f>IF(E15&gt;=$D$33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12">
+        <f>SUM($G$8:G15)</f>
+        <v>8</v>
+      </c>
+      <c r="I15" s="13">
+        <f>COUNT($G$8:G15)/COUNT($G$8:$G$27)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="9">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="25">
+        <f>IF(E16&gt;=$D$33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM($G$8:G16)</f>
+        <v>8</v>
+      </c>
+      <c r="I16" s="10">
+        <f>COUNT($G$8:G16)/COUNT($G$8:$G$27)</f>
+        <v>0.45</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="1"/>
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="12">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="25">
+        <f>IF(E17&gt;=$D$33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12">
+        <f>SUM($G$8:G17)</f>
+        <v>9</v>
+      </c>
+      <c r="I17" s="13">
+        <f>COUNT($G$8:G17)/COUNT($G$8:$G$27)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="9">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="25">
+        <f>IF(E18&gt;=$D$33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <f>SUM($G$8:G18)</f>
+        <v>9</v>
+      </c>
+      <c r="I18" s="10">
+        <f>COUNT($G$8:G18)/COUNT($G$8:$G$27)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="1"/>
+        <v>1.6363636363636362</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="12">
+        <v>12</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="F19" s="25">
+        <f>IF(E19&gt;=$D$33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
+        <f>SUM($G$8:G19)</f>
+        <v>10</v>
+      </c>
+      <c r="I19" s="13">
+        <f>COUNT($G$8:G19)/COUNT($G$8:$G$27)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="9">
+        <v>13</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="25">
+        <f>IF(E20&gt;=$D$33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM($G$8:G20)</f>
+        <v>10</v>
+      </c>
+      <c r="I20" s="10">
+        <f>COUNT($G$8:G20)/COUNT($G$8:$G$27)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5384615384615383</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="12">
+        <v>14</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="25">
+        <f>IF(E21&gt;=$D$33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <f>SUM($G$8:G21)</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="13">
+        <f>COUNT($G$8:G21)/COUNT($G$8:$G$27)</f>
+        <v>0.7</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="9">
+        <v>15</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F22" s="25">
+        <f>IF(E22&gt;=$D$33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM($G$8:G22)</f>
+        <v>10</v>
+      </c>
+      <c r="I22" s="10">
+        <f>COUNT($G$8:G22)/COUNT($G$8:$G$27)</f>
+        <v>0.75</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="12">
+        <v>16</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="25">
+        <f>IF(E23&gt;=$D$33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <f>SUM($G$8:G23)</f>
+        <v>10</v>
+      </c>
+      <c r="I23" s="13">
+        <f>COUNT($G$8:G23)/COUNT($G$8:$G$27)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="9">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="25">
+        <f>IF(E24&gt;=$D$33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <f>SUM($G$8:G24)</f>
+        <v>10</v>
+      </c>
+      <c r="I24" s="10">
+        <f>COUNT($G$8:G24)/COUNT($G$8:$G$27)</f>
+        <v>0.85</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="12">
+        <v>18</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="25">
+        <f>IF(E25&gt;=$D$33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <f>SUM($G$8:G25)</f>
+        <v>10</v>
+      </c>
+      <c r="I25" s="13">
+        <f>COUNT($G$8:G25)/COUNT($G$8:$G$27)</f>
+        <v>0.9</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="1"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="9">
+        <v>19</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="25">
+        <f>IF(E26&gt;=$D$33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <f>SUM($G$8:G26)</f>
+        <v>10</v>
+      </c>
+      <c r="I26" s="10">
+        <f>COUNT($G$8:G26)/COUNT($G$8:$G$27)</f>
+        <v>0.95</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="25">
+        <f>IF(E27&gt;=$D$33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <f>SUM($G$8:G27)</f>
+        <v>10</v>
+      </c>
+      <c r="I27" s="13">
+        <f>COUNT($G$8:G27)/COUNT($G$8:$G$27)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
+      <c r="L27" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="N27" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B25">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="5">
+        <f>_xlfn.STDEV.S(E8:E27)</f>
+        <v>0.26520845822822031</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="5">
+        <f>AVERAGE(E8:E27)</f>
+        <v>0.50749999999999984</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="3:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="18">
+        <f>SUM(Table4[TRUE POSITIVES])/SUM(Table4[Actual])</f>
+        <v>0.9</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="3:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="18">
+        <f>SUM(Table4[FALSE POSITIVES])/COUNTIF(Table4[Actual],"=0")</f>
+        <v>0.2</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="19">
+        <f>SUM(Table4[TRUE POSITIVES])/SUM(Table4[Decision output @threshold])</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="19">
+        <f>AVERAGE(Table4[Correct])</f>
+        <v>0.85</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C43,Table4[P(X)],"&lt;"&amp;$C44,Table4[Class],"=Class A")</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C43,Table4[P(X)],"&lt;"&amp;$C44,Table4[Class],"=Class B")</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>SUM(D43:E43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0.1</v>
+      </c>
+      <c r="D44">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C44,Table4[P(X)],"&lt;"&amp;$C45,Table4[Class],"=Class A")</f>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C44,Table4[P(X)],"&lt;"&amp;$C45,Table4[Class],"=Class B")</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>SUM(D44:E44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0.2</v>
+      </c>
+      <c r="D45">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C45,Table4[P(X)],"&lt;"&amp;$C46,Table4[Class],"=Class A")</f>
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C45,Table4[P(X)],"&lt;"&amp;$C46,Table4[Class],"=Class B")</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>SUM(D45:E45)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0.3</v>
+      </c>
+      <c r="D46">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C46,Table4[P(X)],"&lt;"&amp;$C47,Table4[Class],"=Class A")</f>
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C46,Table4[P(X)],"&lt;"&amp;$C47,Table4[Class],"=Class B")</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>SUM(D46:E46)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0.4</v>
+      </c>
+      <c r="D47">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C47,Table4[P(X)],"&lt;"&amp;$C48,Table4[Class],"=Class A")</f>
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C47,Table4[P(X)],"&lt;"&amp;$C48,Table4[Class],"=Class B")</f>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f>SUM(D47:E47)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C48,Table4[P(X)],"&lt;"&amp;$C49,Table4[Class],"=Class A")</f>
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C48,Table4[P(X)],"&lt;"&amp;$C49,Table4[Class],"=Class B")</f>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f>SUM(D48:E48)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0.6</v>
+      </c>
+      <c r="D49">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C49,Table4[P(X)],"&lt;"&amp;$C50,Table4[Class],"=Class A")</f>
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C49,Table4[P(X)],"&lt;"&amp;$C50,Table4[Class],"=Class B")</f>
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <f>SUM(D49:E49)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0.7</v>
+      </c>
+      <c r="D50">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C50,Table4[P(X)],"&lt;"&amp;$C51,Table4[Class],"=Class A")</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C50,Table4[P(X)],"&lt;"&amp;$C51,Table4[Class],"=Class B")</f>
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <f>SUM(D50:E50)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51">
         <v>0.8</v>
       </c>
-      <c r="C25">
+      <c r="D51">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C51,Table4[P(X)],"&lt;"&amp;$C52,Table4[Class],"=Class A")</f>
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="E51">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C51,Table4[P(X)],"&lt;"&amp;$C52,Table4[Class],"=Class B")</f>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f>SUM(D51:E51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0.9</v>
+      </c>
+      <c r="D52">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C52,Table4[P(X)],"&lt;"&amp;$C53,Table4[Class],"=Class A")</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C52,Table4[P(X)],"&lt;"&amp;$C53,Table4[Class],"=Class B")</f>
         <v>3</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
+      <c r="F52">
+        <f>SUM(D52:E52)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C53,Table4[P(X)],"&lt;"&amp;$C54,Table4[Class],"=Class A")</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>COUNTIFS(Table4[P(X)],"&gt;="&amp;$C53,Table4[P(X)],"&lt;"&amp;$C54,Table4[Class],"=Class B")</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>SUM(D53:E53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C60" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="20">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
         <v>0.9</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
+      <c r="F63" s="2">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="D64" s="2">
         <v>1</v>
       </c>
-      <c r="O25">
+      <c r="E64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="D65" s="2">
         <v>1</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
+      <c r="E65" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
         <v>1</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="3"/>
+      <c r="G68" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E69" s="2">
         <v>0</v>
       </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B26">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="21">
         <v>0.9</v>
       </c>
-      <c r="C26">
+      <c r="D70" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E70" s="2">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="1"/>
+      <c r="F70" s="2">
         <v>1</v>
       </c>
-      <c r="O26">
+      <c r="G70" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="20">
         <v>1</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
         <v>1</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="M28">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="D30">
+      <c r="G71" s="2">
         <v>0.5</v>
-      </c>
-      <c r="E30">
-        <v>0.9</v>
-      </c>
-      <c r="F30">
-        <v>0.2</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="D31">
-        <v>0.1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="D32">
-        <v>0.2</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.9</v>
-      </c>
-      <c r="M32">
-        <f>I6</f>
-        <v>0.6</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D33">
-        <v>0.3</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.5</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ref="M33:M40" si="4">I7</f>
-        <v>0.2</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D34">
-        <v>0.4</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D35">
-        <v>0.6</v>
-      </c>
-      <c r="E35">
-        <v>0.8</v>
-      </c>
-      <c r="F35">
-        <v>0.1</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D36">
-        <v>0.7</v>
-      </c>
-      <c r="E36">
-        <v>0.6</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D37">
-        <v>0.8</v>
-      </c>
-      <c r="E37">
-        <v>0.4</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D38">
-        <v>0.9</v>
-      </c>
-      <c r="E38">
-        <v>0.3</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="M41">
-        <f>I15</f>
-        <v>0.3</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D45">
-        <v>0.7</v>
-      </c>
-      <c r="E45">
-        <v>0.6</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D46">
-        <v>0.8</v>
-      </c>
-      <c r="E46">
-        <v>0.4</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D47">
-        <v>0.9</v>
-      </c>
-      <c r="E47">
-        <v>0.3</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.45">
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D49">
-        <v>0.6</v>
-      </c>
-      <c r="E49">
-        <v>0.8</v>
-      </c>
-      <c r="F49">
-        <v>0.1</v>
-      </c>
-      <c r="G49">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D50">
-        <v>0.5</v>
-      </c>
-      <c r="E50">
-        <v>0.9</v>
-      </c>
-      <c r="F50">
-        <v>0.2</v>
-      </c>
-      <c r="G50">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D51">
-        <v>0.4</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0.3</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D52">
-        <v>0.3</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>0.5</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D53">
-        <v>0.2</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0.9</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D54">
-        <v>0.1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H3:L3"/>
+  <mergeCells count="8">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <ignoredErrors>
+    <ignoredError sqref="F8:F27" calculatedColumn="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ROC_CURVES.xlsx
+++ b/ROC_CURVES.xlsx
@@ -393,6 +393,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,13 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -10390,7 +10390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37DF5CC-C5F3-428A-BC86-6A41DD08648D}">
   <dimension ref="B2:M150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10407,10 +10409,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
@@ -11413,14 +11415,14 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="31"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
@@ -11429,8 +11431,8 @@
       <c r="C33" s="14">
         <v>0.5</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
@@ -11440,10 +11442,10 @@
         <f>SUM(Table4[TRUE POSITIVES])/SUM(Table4[Actual])</f>
         <v>0.9</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="32"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="2:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
@@ -11453,10 +11455,10 @@
         <f>SUM(Table4[FALSE POSITIVES])/COUNTIF(Table4[Actual],"=0")</f>
         <v>0.2</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="32"/>
+      <c r="E35" s="37"/>
     </row>
     <row r="36" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
@@ -11466,10 +11468,10 @@
         <f>SUM(Table4[TRUE POSITIVES])/SUM(Table4[Decision output @threshold])</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="32"/>
+      <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -11479,8 +11481,8 @@
         <f>AVERAGE(Table4[Correct])</f>
         <v>0.85</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
@@ -11500,7 +11502,7 @@
       <c r="E46" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="31" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11946,7 +11948,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B100" s="37" t="s">
+      <c r="B100" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C100" t="s">
@@ -11983,7 +11985,7 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <f>D101/$D$111</f>
+        <f t="shared" ref="F101:F110" si="7">D101/$D$111</f>
         <v>0.2</v>
       </c>
       <c r="G101">
@@ -12010,7 +12012,7 @@
         <v>4</v>
       </c>
       <c r="F102">
-        <f>D102/$D$111</f>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="G102">
@@ -12018,7 +12020,7 @@
         <v>0.4</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" ref="H102:H110" si="7">G102/(B102/10)</f>
+        <f t="shared" ref="H102:H110" si="8">G102/(B102/10)</f>
         <v>2</v>
       </c>
     </row>
@@ -12033,19 +12035,19 @@
         <v>2</v>
       </c>
       <c r="E103">
-        <f t="shared" ref="E103:E110" si="8">E102+D103</f>
+        <f t="shared" ref="E103:E110" si="9">E102+D103</f>
         <v>6</v>
       </c>
       <c r="F103">
-        <f>D103/$D$111</f>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="G103">
-        <f t="shared" ref="G103:G110" si="9">G102+F103</f>
+        <f t="shared" ref="G103:G110" si="10">G102+F103</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000004</v>
       </c>
     </row>
@@ -12060,19 +12062,19 @@
         <v>2</v>
       </c>
       <c r="E104">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="H104" s="2">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="F104">
-        <f>D104/$D$111</f>
-        <v>0.2</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="9"/>
-        <v>0.8</v>
-      </c>
-      <c r="H104" s="2">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -12087,19 +12089,19 @@
         <v>1</v>
       </c>
       <c r="E105">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H105" s="2">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="F105">
-        <f>D105/$D$111</f>
-        <v>0.1</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="H105" s="2">
-        <f t="shared" si="7"/>
         <v>1.8</v>
       </c>
     </row>
@@ -12114,19 +12116,19 @@
         <v>1</v>
       </c>
       <c r="E106">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H106" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="F106">
-        <f>D106/$D$111</f>
-        <v>0.1</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H106" s="2">
-        <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -12141,19 +12143,19 @@
         <v>0</v>
       </c>
       <c r="E107">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H107" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="F107">
-        <f>D107/$D$111</f>
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H107" s="2">
-        <f t="shared" si="7"/>
         <v>1.4285714285714286</v>
       </c>
     </row>
@@ -12168,19 +12170,19 @@
         <v>0</v>
       </c>
       <c r="E108">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H108" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="F108">
-        <f>D108/$D$111</f>
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H108" s="2">
-        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
     </row>
@@ -12195,19 +12197,19 @@
         <v>0</v>
       </c>
       <c r="E109">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H109" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="F109">
-        <f>D109/$D$111</f>
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H109" s="2">
-        <f t="shared" si="7"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
@@ -12222,19 +12224,19 @@
         <v>0</v>
       </c>
       <c r="E110">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H110" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="F110">
-        <f>D110/$D$111</f>
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H110" s="2">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12255,15 +12257,15 @@
         <f>ROW(A1:$A$20)/20</f>
         <v>0.05</v>
       </c>
-      <c r="D131" s="34">
+      <c r="D131" s="30">
         <v>1489</v>
       </c>
       <c r="E131">
         <f>D131-E130</f>
         <v>252.54999999999995</v>
       </c>
-      <c r="F131" s="36">
-        <f>STANDARDIZE(D131,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F131" s="32">
+        <f t="shared" ref="F131:F150" si="11">STANDARDIZE(D131,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
         <v>1.7062406891798301</v>
       </c>
     </row>
@@ -12272,15 +12274,15 @@
         <f>ROW(A2:$A$20)/20</f>
         <v>0.1</v>
       </c>
-      <c r="D132" s="34">
+      <c r="D132" s="30">
         <v>1481</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E150" si="10">D132-E131</f>
+        <f t="shared" ref="E132:E150" si="12">D132-E131</f>
         <v>1228.45</v>
       </c>
-      <c r="F132" s="36">
-        <f>STANDARDIZE(D132,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F132" s="32">
+        <f t="shared" si="11"/>
         <v>1.6521922808906253</v>
       </c>
     </row>
@@ -12289,15 +12291,15 @@
         <f>ROW(A3:$A$20)/20</f>
         <v>0.15</v>
       </c>
-      <c r="D133" s="34">
+      <c r="D133" s="30">
         <v>1471</v>
       </c>
       <c r="E133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>242.54999999999995</v>
       </c>
-      <c r="F133" s="36">
-        <f>STANDARDIZE(D133,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F133" s="32">
+        <f t="shared" si="11"/>
         <v>1.5846317705291195</v>
       </c>
     </row>
@@ -12306,15 +12308,15 @@
         <f>ROW(A4:$A$20)/20</f>
         <v>0.2</v>
       </c>
-      <c r="D134" s="34">
+      <c r="D134" s="30">
         <v>1362</v>
       </c>
       <c r="E134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1119.45</v>
       </c>
-      <c r="F134" s="36">
-        <f>STANDARDIZE(D134,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F134" s="32">
+        <f t="shared" si="11"/>
         <v>0.8482222075887057</v>
       </c>
     </row>
@@ -12323,15 +12325,15 @@
         <f>ROW(A5:$A$20)/20</f>
         <v>0.25</v>
       </c>
-      <c r="D135" s="34">
+      <c r="D135" s="30">
         <v>1352</v>
       </c>
       <c r="E135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>232.54999999999995</v>
       </c>
-      <c r="F135" s="36">
-        <f>STANDARDIZE(D135,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F135" s="32">
+        <f t="shared" si="11"/>
         <v>0.7806616972271998</v>
       </c>
     </row>
@@ -12340,15 +12342,15 @@
         <f>ROW(A6:$A$20)/20</f>
         <v>0.3</v>
       </c>
-      <c r="D136" s="34">
+      <c r="D136" s="30">
         <v>1325</v>
       </c>
       <c r="E136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1092.45</v>
       </c>
-      <c r="F136" s="36">
-        <f>STANDARDIZE(D136,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F136" s="32">
+        <f t="shared" si="11"/>
         <v>0.59824831925113409</v>
       </c>
     </row>
@@ -12357,15 +12359,15 @@
         <f>ROW(A7:$A$20)/20</f>
         <v>0.35</v>
       </c>
-      <c r="D137" s="34">
+      <c r="D137" s="30">
         <v>1289</v>
       </c>
       <c r="E137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>196.54999999999995</v>
       </c>
-      <c r="F137" s="36">
-        <f>STANDARDIZE(D137,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F137" s="32">
+        <f t="shared" si="11"/>
         <v>0.35503048194971298</v>
       </c>
     </row>
@@ -12374,15 +12376,15 @@
         <f>ROW(A8:$A$20)/20</f>
         <v>0.4</v>
       </c>
-      <c r="D138" s="34">
+      <c r="D138" s="30">
         <v>1269</v>
       </c>
       <c r="E138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1072.45</v>
       </c>
-      <c r="F138" s="36">
-        <f>STANDARDIZE(D138,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F138" s="32">
+        <f t="shared" si="11"/>
         <v>0.21990946122670124</v>
       </c>
     </row>
@@ -12391,15 +12393,15 @@
         <f>ROW(A9:$A$20)/20</f>
         <v>0.45</v>
       </c>
-      <c r="D139" s="34">
+      <c r="D139" s="30">
         <v>1242</v>
       </c>
       <c r="E139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>169.54999999999995</v>
       </c>
-      <c r="F139" s="36">
-        <f>STANDARDIZE(D139,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F139" s="32">
+        <f t="shared" si="11"/>
         <v>3.7496083250635442E-2</v>
       </c>
     </row>
@@ -12408,15 +12410,15 @@
         <f>ROW(A10:$A$20)/20</f>
         <v>0.5</v>
       </c>
-      <c r="D140" s="34">
+      <c r="D140" s="30">
         <v>1239</v>
       </c>
       <c r="E140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1069.45</v>
       </c>
-      <c r="F140" s="36">
-        <f>STANDARDIZE(D140,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F140" s="32">
+        <f t="shared" si="11"/>
         <v>1.7227930142183687E-2</v>
       </c>
     </row>
@@ -12425,15 +12427,15 @@
         <f>ROW(A11:$A$20)/20</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D141" s="34">
+      <c r="D141" s="30">
         <v>1232</v>
       </c>
       <c r="E141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>162.54999999999995</v>
       </c>
-      <c r="F141" s="36">
-        <f>STANDARDIZE(D141,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F141" s="32">
+        <f t="shared" si="11"/>
         <v>-3.0064427110870411E-2</v>
       </c>
     </row>
@@ -12442,15 +12444,15 @@
         <f>ROW(A12:$A$20)/20</f>
         <v>0.6</v>
       </c>
-      <c r="D142" s="34">
+      <c r="D142" s="30">
         <v>1226</v>
       </c>
       <c r="E142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1063.45</v>
       </c>
-      <c r="F142" s="36">
-        <f>STANDARDIZE(D142,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F142" s="32">
+        <f t="shared" si="11"/>
         <v>-7.0600733327773932E-2</v>
       </c>
     </row>
@@ -12459,15 +12461,15 @@
         <f>ROW(A13:$A$20)/20</f>
         <v>0.65</v>
       </c>
-      <c r="D143" s="34">
+      <c r="D143" s="30">
         <v>1195</v>
       </c>
       <c r="E143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>131.54999999999995</v>
       </c>
-      <c r="F143" s="36">
-        <f>STANDARDIZE(D143,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F143" s="32">
+        <f t="shared" si="11"/>
         <v>-0.2800383154484421</v>
       </c>
     </row>
@@ -12476,15 +12478,15 @@
         <f>ROW(A14:$A$20)/20</f>
         <v>0.7</v>
       </c>
-      <c r="D144" s="34">
+      <c r="D144" s="30">
         <v>1156</v>
       </c>
       <c r="E144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1024.45</v>
       </c>
-      <c r="F144" s="36">
-        <f>STANDARDIZE(D144,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F144" s="32">
+        <f t="shared" si="11"/>
         <v>-0.5435243058583149</v>
       </c>
     </row>
@@ -12493,15 +12495,15 @@
         <f>ROW(A15:$A$20)/20</f>
         <v>0.75</v>
       </c>
-      <c r="D145" s="34">
+      <c r="D145" s="30">
         <v>1148</v>
       </c>
       <c r="E145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>123.54999999999995</v>
       </c>
-      <c r="F145" s="36">
-        <f>STANDARDIZE(D145,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F145" s="32">
+        <f t="shared" si="11"/>
         <v>-0.59757271414751956</v>
       </c>
     </row>
@@ -12510,15 +12512,15 @@
         <f>ROW(A16:$A$20)/20</f>
         <v>0.8</v>
       </c>
-      <c r="D146" s="34">
+      <c r="D146" s="30">
         <v>1120</v>
       </c>
       <c r="E146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>996.45</v>
       </c>
-      <c r="F146" s="36">
-        <f>STANDARDIZE(D146,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F146" s="32">
+        <f t="shared" si="11"/>
         <v>-0.78674214315973601</v>
       </c>
     </row>
@@ -12527,15 +12529,15 @@
         <f>ROW(A17:$A$20)/20</f>
         <v>0.85</v>
       </c>
-      <c r="D147" s="34">
+      <c r="D147" s="30">
         <v>1065</v>
       </c>
       <c r="E147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>68.549999999999955</v>
       </c>
-      <c r="F147" s="36">
-        <f>STANDARDIZE(D147,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F147" s="32">
+        <f t="shared" si="11"/>
         <v>-1.1583249501480182</v>
       </c>
     </row>
@@ -12544,15 +12546,15 @@
         <f>ROW(A18:$A$20)/20</f>
         <v>0.9</v>
       </c>
-      <c r="D148" s="34">
+      <c r="D148" s="30">
         <v>1033</v>
       </c>
       <c r="E148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>964.45</v>
       </c>
-      <c r="F148" s="36">
-        <f>STANDARDIZE(D148,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F148" s="32">
+        <f t="shared" si="11"/>
         <v>-1.374518583304837</v>
       </c>
     </row>
@@ -12561,15 +12563,15 @@
         <f>ROW(A19:$A$20)/20</f>
         <v>0.95</v>
       </c>
-      <c r="D149" s="34">
+      <c r="D149" s="30">
         <v>1033</v>
       </c>
       <c r="E149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>68.549999999999955</v>
       </c>
-      <c r="F149" s="36">
-        <f>STANDARDIZE(D149,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F149" s="32">
+        <f t="shared" si="11"/>
         <v>-1.374518583304837</v>
       </c>
     </row>
@@ -12578,15 +12580,15 @@
         <f>ROW(A20:$A$20)/20</f>
         <v>1</v>
       </c>
-      <c r="D150" s="34">
+      <c r="D150" s="30">
         <v>1002</v>
       </c>
       <c r="E150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>933.45</v>
       </c>
-      <c r="F150" s="36">
-        <f>STANDARDIZE(D150,$E$130,_xlfn.STDEV.S($D$131:$D$150))</f>
+      <c r="F150" s="32">
+        <f t="shared" si="11"/>
         <v>-1.583956165425505</v>
       </c>
     </row>
